--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ngf</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.960814666666666</v>
+        <v>0.920265</v>
       </c>
       <c r="H2">
-        <v>8.882444</v>
+        <v>2.760795</v>
       </c>
       <c r="I2">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="J2">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.21127</v>
+        <v>0.261293</v>
       </c>
       <c r="N2">
-        <v>0.63381</v>
+        <v>0.783879</v>
       </c>
       <c r="O2">
-        <v>0.07354932682191852</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P2">
-        <v>0.07354932682191852</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q2">
-        <v>0.6255313146266666</v>
+        <v>0.240458802645</v>
       </c>
       <c r="R2">
-        <v>5.62978183164</v>
+        <v>2.164129223805</v>
       </c>
       <c r="S2">
-        <v>0.01922987904012845</v>
+        <v>0.006368868692997558</v>
       </c>
       <c r="T2">
-        <v>0.01922987904012845</v>
+        <v>0.006368868692997558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.960814666666666</v>
+        <v>0.920265</v>
       </c>
       <c r="H3">
-        <v>8.882444</v>
+        <v>2.760795</v>
       </c>
       <c r="I3">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="J3">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7775033333333332</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N3">
         <v>2.33251</v>
       </c>
       <c r="O3">
-        <v>0.2706718737561622</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="P3">
-        <v>0.2706718737561622</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="Q3">
-        <v>2.302043272715555</v>
+        <v>0.71550910505</v>
       </c>
       <c r="R3">
-        <v>20.71838945444</v>
+        <v>6.43958194545</v>
       </c>
       <c r="S3">
-        <v>0.07076866120744389</v>
+        <v>0.01895120281970015</v>
       </c>
       <c r="T3">
-        <v>0.07076866120744389</v>
+        <v>0.01895120281970015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.960814666666666</v>
+        <v>0.920265</v>
       </c>
       <c r="H4">
-        <v>8.882444</v>
+        <v>2.760795</v>
       </c>
       <c r="I4">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="J4">
-        <v>0.2614555410777428</v>
+        <v>0.1759838360772107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,60 +676,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.860182</v>
+        <v>6.181221333333333</v>
       </c>
       <c r="N4">
-        <v>5.580546</v>
+        <v>18.543664</v>
       </c>
       <c r="O4">
-        <v>0.6475842943449143</v>
+        <v>0.8561227435593071</v>
       </c>
       <c r="P4">
-        <v>0.6475842943449143</v>
+        <v>0.8561227435593072</v>
       </c>
       <c r="Q4">
-        <v>5.507654148269332</v>
+        <v>5.68836165032</v>
       </c>
       <c r="R4">
-        <v>49.568887334424</v>
+        <v>51.19525485288</v>
       </c>
       <c r="S4">
-        <v>0.1693145020713978</v>
+        <v>0.150663764564513</v>
       </c>
       <c r="T4">
-        <v>0.1693145020713978</v>
+        <v>0.150663764564513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.960814666666666</v>
+        <v>0.5933296666666666</v>
       </c>
       <c r="H5">
-        <v>8.882444</v>
+        <v>1.779989</v>
       </c>
       <c r="I5">
-        <v>0.2614555410777428</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="J5">
-        <v>0.2614555410777428</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02353866666666667</v>
+        <v>0.261293</v>
       </c>
       <c r="N5">
-        <v>0.070616</v>
+        <v>0.783879</v>
       </c>
       <c r="O5">
-        <v>0.008194505077005093</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P5">
-        <v>0.008194505077005093</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q5">
-        <v>0.06969362950044443</v>
+        <v>0.1550328885923333</v>
       </c>
       <c r="R5">
-        <v>0.627242665504</v>
+        <v>1.395295997331</v>
       </c>
       <c r="S5">
-        <v>0.002142498758772677</v>
+        <v>0.004106250632872063</v>
       </c>
       <c r="T5">
-        <v>0.002142498758772677</v>
+        <v>0.004106250632872064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,40 +788,40 @@
         <v>1.779989</v>
       </c>
       <c r="I6">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="J6">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.21127</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N6">
-        <v>0.63381</v>
+        <v>2.33251</v>
       </c>
       <c r="O6">
-        <v>0.07354932682191852</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="P6">
-        <v>0.07354932682191852</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="Q6">
-        <v>0.1253527586766666</v>
+        <v>0.4613157935988889</v>
       </c>
       <c r="R6">
-        <v>1.12817482809</v>
+        <v>4.15184214239</v>
       </c>
       <c r="S6">
-        <v>0.003853553499775422</v>
+        <v>0.01221855753717145</v>
       </c>
       <c r="T6">
-        <v>0.003853553499775422</v>
+        <v>0.01221855753717145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,10 +850,10 @@
         <v>1.779989</v>
       </c>
       <c r="I7">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="J7">
-        <v>0.05239413691855872</v>
+        <v>0.1134634380297118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7775033333333332</v>
+        <v>6.181221333333333</v>
       </c>
       <c r="N7">
-        <v>2.33251</v>
+        <v>18.543664</v>
       </c>
       <c r="O7">
-        <v>0.2706718737561622</v>
+        <v>0.8561227435593071</v>
       </c>
       <c r="P7">
-        <v>0.2706718737561622</v>
+        <v>0.8561227435593072</v>
       </c>
       <c r="Q7">
-        <v>0.4613157935988888</v>
+        <v>3.667501993299555</v>
       </c>
       <c r="R7">
-        <v>4.15184214239</v>
+        <v>33.007517939696</v>
       </c>
       <c r="S7">
-        <v>0.0141816192135832</v>
+        <v>0.09713862985966827</v>
       </c>
       <c r="T7">
-        <v>0.0141816192135832</v>
+        <v>0.09713862985966829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5933296666666666</v>
+        <v>3.715664</v>
       </c>
       <c r="H8">
-        <v>1.779989</v>
+        <v>11.146992</v>
       </c>
       <c r="I8">
-        <v>0.05239413691855872</v>
+        <v>0.7105527258930776</v>
       </c>
       <c r="J8">
-        <v>0.05239413691855872</v>
+        <v>0.7105527258930775</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.860182</v>
+        <v>0.261293</v>
       </c>
       <c r="N8">
-        <v>5.580546</v>
+        <v>0.783879</v>
       </c>
       <c r="O8">
-        <v>0.6475842943449143</v>
+        <v>0.0361900776512412</v>
       </c>
       <c r="P8">
-        <v>0.6475842943449143</v>
+        <v>0.03619007765124121</v>
       </c>
       <c r="Q8">
-        <v>1.103701165999333</v>
+        <v>0.9708769935520001</v>
       </c>
       <c r="R8">
-        <v>9.933310493994</v>
+        <v>8.737892941968001</v>
       </c>
       <c r="S8">
-        <v>0.03392962018421567</v>
+        <v>0.02571495832537158</v>
       </c>
       <c r="T8">
-        <v>0.03392962018421567</v>
+        <v>0.02571495832537158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5933296666666666</v>
+        <v>3.715664</v>
       </c>
       <c r="H9">
-        <v>1.779989</v>
+        <v>11.146992</v>
       </c>
       <c r="I9">
-        <v>0.05239413691855872</v>
+        <v>0.7105527258930776</v>
       </c>
       <c r="J9">
-        <v>0.05239413691855872</v>
+        <v>0.7105527258930775</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02353866666666667</v>
+        <v>0.7775033333333333</v>
       </c>
       <c r="N9">
-        <v>0.070616</v>
+        <v>2.33251</v>
       </c>
       <c r="O9">
-        <v>0.008194505077005093</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="P9">
-        <v>0.008194505077005093</v>
+        <v>0.1076871787894517</v>
       </c>
       <c r="Q9">
-        <v>0.01396618924711111</v>
+        <v>2.888941145546667</v>
       </c>
       <c r="R9">
-        <v>0.125695703224</v>
+        <v>26.00047030992</v>
       </c>
       <c r="S9">
-        <v>0.0004293440209844294</v>
+        <v>0.07651741843258011</v>
       </c>
       <c r="T9">
-        <v>0.0004293440209844294</v>
+        <v>0.07651741843258013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,480 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.765557333333334</v>
+        <v>3.715664</v>
       </c>
       <c r="H10">
-        <v>23.296672</v>
+        <v>11.146992</v>
       </c>
       <c r="I10">
-        <v>0.6857396436240636</v>
+        <v>0.7105527258930776</v>
       </c>
       <c r="J10">
-        <v>0.6857396436240636</v>
+        <v>0.7105527258930775</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.21127</v>
+        <v>6.181221333333333</v>
       </c>
       <c r="N10">
-        <v>0.63381</v>
+        <v>18.543664</v>
       </c>
       <c r="O10">
-        <v>0.07354932682191852</v>
+        <v>0.8561227435593071</v>
       </c>
       <c r="P10">
-        <v>0.07354932682191852</v>
+        <v>0.8561227435593072</v>
       </c>
       <c r="Q10">
-        <v>1.640629297813333</v>
+        <v>22.96734158429867</v>
       </c>
       <c r="R10">
-        <v>14.76566368032</v>
+        <v>206.706074258688</v>
       </c>
       <c r="S10">
-        <v>0.05043568916365219</v>
+        <v>0.6083203491351259</v>
       </c>
       <c r="T10">
-        <v>0.05043568916365219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7.765557333333334</v>
-      </c>
-      <c r="H11">
-        <v>23.296672</v>
-      </c>
-      <c r="I11">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="J11">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.7775033333333332</v>
-      </c>
-      <c r="N11">
-        <v>2.33251</v>
-      </c>
-      <c r="O11">
-        <v>0.2706718737561622</v>
-      </c>
-      <c r="P11">
-        <v>0.2706718737561622</v>
-      </c>
-      <c r="Q11">
-        <v>6.037746711857777</v>
-      </c>
-      <c r="R11">
-        <v>54.33972040671999</v>
-      </c>
-      <c r="S11">
-        <v>0.1856104342486082</v>
-      </c>
-      <c r="T11">
-        <v>0.1856104342486082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>7.765557333333334</v>
-      </c>
-      <c r="H12">
-        <v>23.296672</v>
-      </c>
-      <c r="I12">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="J12">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.860182</v>
-      </c>
-      <c r="N12">
-        <v>5.580546</v>
-      </c>
-      <c r="O12">
-        <v>0.6475842943449143</v>
-      </c>
-      <c r="P12">
-        <v>0.6475842943449143</v>
-      </c>
-      <c r="Q12">
-        <v>14.44534997143467</v>
-      </c>
-      <c r="R12">
-        <v>130.008149742912</v>
-      </c>
-      <c r="S12">
-        <v>0.4440742232206222</v>
-      </c>
-      <c r="T12">
-        <v>0.4440742232206222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.765557333333334</v>
-      </c>
-      <c r="H13">
-        <v>23.296672</v>
-      </c>
-      <c r="I13">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="J13">
-        <v>0.6857396436240636</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.02353866666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.070616</v>
-      </c>
-      <c r="O13">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="P13">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="Q13">
-        <v>0.1827908655502222</v>
-      </c>
-      <c r="R13">
-        <v>1.645117789952</v>
-      </c>
-      <c r="S13">
-        <v>0.005619296991181052</v>
-      </c>
-      <c r="T13">
-        <v>0.005619296991181052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.013952</v>
-      </c>
-      <c r="I14">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J14">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.21127</v>
-      </c>
-      <c r="N14">
-        <v>0.63381</v>
-      </c>
-      <c r="O14">
-        <v>0.07354932682191852</v>
-      </c>
-      <c r="P14">
-        <v>0.07354932682191852</v>
-      </c>
-      <c r="Q14">
-        <v>0.0009825463466666667</v>
-      </c>
-      <c r="R14">
-        <v>0.00884291712</v>
-      </c>
-      <c r="S14">
-        <v>3.020511836245431E-05</v>
-      </c>
-      <c r="T14">
-        <v>3.020511836245431E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.013952</v>
-      </c>
-      <c r="I15">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J15">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.7775033333333332</v>
-      </c>
-      <c r="N15">
-        <v>2.33251</v>
-      </c>
-      <c r="O15">
-        <v>0.2706718737561622</v>
-      </c>
-      <c r="P15">
-        <v>0.2706718737561622</v>
-      </c>
-      <c r="Q15">
-        <v>0.003615908835555555</v>
-      </c>
-      <c r="R15">
-        <v>0.03254317952</v>
-      </c>
-      <c r="S15">
-        <v>0.0001111590865268903</v>
-      </c>
-      <c r="T15">
-        <v>0.0001111590865268903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.013952</v>
-      </c>
-      <c r="I16">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J16">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.860182</v>
-      </c>
-      <c r="N16">
-        <v>5.580546</v>
-      </c>
-      <c r="O16">
-        <v>0.6475842943449143</v>
-      </c>
-      <c r="P16">
-        <v>0.6475842943449143</v>
-      </c>
-      <c r="Q16">
-        <v>0.008651086421333333</v>
-      </c>
-      <c r="R16">
-        <v>0.077859777792</v>
-      </c>
-      <c r="S16">
-        <v>0.0002659488686785014</v>
-      </c>
-      <c r="T16">
-        <v>0.0002659488686785014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004650666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.013952</v>
-      </c>
-      <c r="I17">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="J17">
-        <v>0.0004106783796347794</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.02353866666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.070616</v>
-      </c>
-      <c r="O17">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="P17">
-        <v>0.008194505077005093</v>
-      </c>
-      <c r="Q17">
-        <v>0.0001094704924444444</v>
-      </c>
-      <c r="R17">
-        <v>0.000985234432</v>
-      </c>
-      <c r="S17">
-        <v>3.365306066933424E-06</v>
-      </c>
-      <c r="T17">
-        <v>3.365306066933424E-06</v>
+        <v>0.6083203491351259</v>
       </c>
     </row>
   </sheetData>
